--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2657.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2657.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8820481908080644</v>
+        <v>1.831836938858032</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.966942667961121</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.949584364891052</v>
       </c>
       <c r="D1">
-        <v>1.25472753422429</v>
+        <v>2.331913948059082</v>
       </c>
       <c r="E1">
-        <v>0.8371947465799213</v>
+        <v>3.081932067871094</v>
       </c>
     </row>
   </sheetData>
